--- a/theprojectfolder/IDR_pipeline/docs/AWS_Project_Cost_Tracker.xlsx
+++ b/theprojectfolder/IDR_pipeline/docs/AWS_Project_Cost_Tracker.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="124">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -117,6 +117,12 @@
     <t xml:space="preserve">Other Services</t>
   </si>
   <si>
+    <t xml:space="preserve">Lambda (Tag Audit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EventBridge</t>
+  </si>
+  <si>
     <t xml:space="preserve">TOTAL</t>
   </si>
   <si>
@@ -183,6 +189,18 @@
     <t xml:space="preserve">$0.50/GB</t>
   </si>
   <si>
+    <t xml:space="preserve">4 invocations/month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free Tier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EventBridge (Scheduled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 rule</t>
+  </si>
+  <si>
     <t xml:space="preserve">Data Transfer</t>
   </si>
   <si>
@@ -229,6 +247,51 @@
   </si>
   <si>
     <t xml:space="preserve">ROI %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tag Governance Solution Comparison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual Cost ($)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS Config</t>
+  </si>
+  <si>
+    <t xml:space="preserve">❌ Not Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Too expensive for learning project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lambda + EventBridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✅ Implemented</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within Free Tier - automated weekly audits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual Script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⚠️ Backup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">audit-tags.sh for on-demand checks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual Savings (Lambda vs Config)</t>
   </si>
   <si>
     <t xml:space="preserve">AWS Cost Explorer &amp; Budget Alert Setup Guide</t>
@@ -1053,7 +1116,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1061,9 +1124,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="40"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1206,275 +1269,426 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="10" t="n">
-        <f aca="false">SUM(B6:B12)</f>
+      <c r="B13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <f aca="false">SUMIFS('Daily Cost Tracker'!F:F,'Daily Cost Tracker'!B:B,"Lambda",'Daily Cost Tracker'!C:C,"*Tag Audit*")</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <f aca="false">C13-B13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <f aca="false">SUMIF('Daily Cost Tracker'!B:B,"EventBridge",'Daily Cost Tracker'!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <f aca="false">C14-B14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="10" t="n">
+        <f aca="false">SUM(B6:B14)</f>
         <v>11.1</v>
       </c>
-      <c r="C13" s="10" t="n">
-        <f aca="false">SUM(C6:C12)</f>
+      <c r="C15" s="10" t="n">
+        <f aca="false">SUM(C6:C14)</f>
         <v>2.30251</v>
       </c>
-      <c r="D13" s="10" t="n">
-        <f aca="false">C13-B13</f>
+      <c r="D15" s="10" t="n">
+        <f aca="false">C15-B15</f>
         <v>-8.79749</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="11" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="B20" s="11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="C20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D20" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>1.15</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>0.01</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>1.5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>10</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>0.01</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D27" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="1" t="n">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="s">
+      <c r="C28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="13" t="n">
+      <c r="D28" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <f aca="false">SUM(D19:D29)</f>
+        <v>15.92</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="13" t="n">
         <f aca="false">SUM(D19:D26)</f>
-        <v>16.82</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="14" t="n">
+        <v>13.92</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="14" t="n">
         <f aca="false">D27*12</f>
-        <v>201.84</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="C34" s="1" t="n">
-        <v>4.2</v>
-      </c>
-    </row>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="C35" s="1" t="n">
-        <v>25</v>
+      <c r="A35" s="15" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="5" t="n">
-        <f aca="false">D27</f>
-        <v>16.82</v>
-      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="5" t="n">
-        <f aca="false">D27</f>
-        <v>16.82</v>
+      <c r="B37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="5" t="n">
-        <f aca="false">B35</f>
+        <v>67</v>
+      </c>
+      <c r="B38" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="C38" s="5" t="n">
-        <f aca="false">C35+C36</f>
-        <v>41.82</v>
+      <c r="C38" s="1" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C39" s="18"/>
+      <c r="A39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="19" t="n">
-        <f aca="false">B37-C37</f>
-        <v>-16.82</v>
+        <v>69</v>
+      </c>
+      <c r="B40" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="5" t="n">
+        <f aca="false">D27</f>
+        <v>2</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="20" t="n">
-        <f aca="false">C39*12</f>
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="5" t="n">
+        <f aca="false">D27</f>
+        <v>2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="21" t="n">
+        <v>71</v>
+      </c>
+      <c r="B42" s="5" t="n">
+        <f aca="false">B35</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="5" t="n">
+        <f aca="false">C35+C36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C43" s="18"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="19" t="n">
+        <f aca="false">B44*12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="20" t="n">
+        <f aca="false">C39*12</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="21" t="n">
         <f aca="false">(C40/D27)/12*100</f>
-        <v>-8.33333333333333</v>
+        <v>8.33333333333333</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="5" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C52" s="5" t="n">
+        <f aca="false">B50*12</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="5" t="n">
+        <f aca="false">B52*12</f>
+        <v>0.96</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="19" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1510,159 +1724,159 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B1" s="22"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="23" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="23" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="23" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
